--- a/america_list.xlsx
+++ b/america_list.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D1"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,6 +383,744 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$260</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>$270</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$311</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$254</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$270</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>70</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$265</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oak Bluffs, MA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$327</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$140</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>40</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>$168</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>$159</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>60</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>$225</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>$1,378</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>80</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>$174</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Orlando, FL</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>$243</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>$147</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>$137</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>$147</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>40</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>$147</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>$137</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>80</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>$257</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New York, NY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>90</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>$147</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>$308</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>40</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>$291</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>50</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>$291</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>70</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>$291</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>80</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>$291</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Durham, NC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>90</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>$291</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>$289</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>20</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>$285</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>50</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>$312</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>60</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>$318</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>80</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>$232</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Green Bay, WI</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>90</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>$329</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>$382</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>$313</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>30</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>$313</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>40</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>$440</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>$487</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Atlantic City, New Jersey</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>70</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>$332</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/america_list.xlsx
+++ b/america_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidterpay/Desktop/C1Hack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kunalupadya/CapitalOneHackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1E70FB-5B8D-844E-9767-23BCBC90EE80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C6815D-8326-FD4F-8E9E-2255E9828E3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="1300" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Oak Bluffs, MA</t>
-  </si>
-  <si>
     <t>$260</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>$327</t>
   </si>
   <si>
-    <t>Orlando, FL</t>
-  </si>
-  <si>
     <t>$140</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>$243</t>
   </si>
   <si>
-    <t>New York, NY</t>
-  </si>
-  <si>
     <t>$147</t>
   </si>
   <si>
@@ -91,18 +82,12 @@
     <t>$257</t>
   </si>
   <si>
-    <t>Durham, NC</t>
-  </si>
-  <si>
     <t>$308</t>
   </si>
   <si>
     <t>$291</t>
   </si>
   <si>
-    <t>Green Bay, WI</t>
-  </si>
-  <si>
     <t>$289</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>$329</t>
   </si>
   <si>
-    <t>Atlantic City, New Jersey</t>
-  </si>
-  <si>
     <t>$382</t>
   </si>
   <si>
@@ -137,13 +119,69 @@
   </si>
   <si>
     <t>$332</t>
+  </si>
+  <si>
+    <t>1414 Kuhl Ave, Orlando, FL 32806</t>
+  </si>
+  <si>
+    <r>
+      <t>Atlantic City</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A0DAB"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>New Jersey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1A0DAB"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>United States</t>
+    </r>
+  </si>
+  <si>
+    <t>2845 Greenbrier Rd, Green Bay, WI 54311</t>
+  </si>
+  <si>
+    <t>2301 Erwin Rd, Durham, NC 27710</t>
+  </si>
+  <si>
+    <t>1468 Madison Ave, New York, NY 10029</t>
+  </si>
+  <si>
+    <t>1 Hospital Rd, Oak Bluffs, MA 02557</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +193,18 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A0DAB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -193,11 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +554,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -524,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -538,13 +589,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,13 +603,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -566,13 +617,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,13 +631,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -594,13 +645,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -608,13 +659,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -622,13 +673,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -636,13 +687,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -650,13 +701,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,13 +715,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -678,13 +729,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -692,13 +743,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -706,13 +757,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -720,13 +771,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -734,13 +785,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -748,13 +799,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,13 +813,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -776,13 +827,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -790,13 +841,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -804,13 +855,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -818,13 +869,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -832,13 +883,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -846,13 +897,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -860,13 +911,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -874,13 +925,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -888,13 +939,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -902,13 +953,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C29">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -916,13 +967,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C30">
         <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -930,13 +981,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -944,13 +995,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -958,13 +1009,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>50</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -972,13 +1023,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -986,13 +1037,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1000,97 +1051,97 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>90</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>33</v>
+      <c r="B37" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C37">
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>33</v>
+      <c r="B38" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>33</v>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C39">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>33</v>
+      <c r="B40" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>33</v>
+      <c r="B41" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C41">
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>33</v>
+      <c r="B42" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C42">
         <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
